--- a/docs/files/jones-vlookup-examples-v2.xlsx
+++ b/docs/files/jones-vlookup-examples-v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencejones/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencejones/161-recitations/docs/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB385F50-3948-0F44-AC40-21C177E659E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6F0265-918F-3645-99AD-7D317FC9DFC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33140" yWindow="2720" windowWidth="32300" windowHeight="22660" xr2:uid="{7F51FBAF-D0BC-614B-9A6D-9DA85CB15126}"/>
   </bookViews>
@@ -17,9 +17,6 @@
     <sheet name="Harry Potter Lookup Data" sheetId="2" r:id="rId2"/>
     <sheet name="Harry Potter VLOOKUP Exercise" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="harry_potter">'Harry Potter Lookup Data'!$F$5:$G$14</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -125,9 +122,6 @@
     <t>SW-ID</t>
   </si>
   <si>
-    <t>S-ID</t>
-  </si>
-  <si>
     <t>Ron</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
     <t>harry potter (relative range WILL BREAK!)</t>
   </si>
   <si>
-    <t>HP-ID</t>
-  </si>
-  <si>
     <t>harry potter (named range)</t>
   </si>
   <si>
@@ -195,6 +186,12 @@
   </si>
   <si>
     <t>Selected Range</t>
+  </si>
+  <si>
+    <t>S_ID</t>
+  </si>
+  <si>
+    <t>SW_ID</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1234,7 @@
   <dimension ref="B1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1261,7 +1258,7 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>11</v>
@@ -1295,19 +1292,19 @@
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>0</v>
@@ -1767,41 +1764,41 @@
   <dimension ref="B2:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="53.140625" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H3" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -1812,13 +1809,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="11">
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -1826,13 +1823,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="11">
         <v>2</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -1840,13 +1837,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="11">
         <v>3</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -1854,13 +1851,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="11">
         <v>4</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -1868,13 +1865,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="11">
         <v>5</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -1882,13 +1879,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="11">
         <v>6</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -1896,13 +1893,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="11">
         <v>7</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -1910,13 +1907,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="11">
         <v>8</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -1924,13 +1921,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="11">
         <v>9</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -1938,18 +1935,18 @@
         <v>10</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="11">
         <v>10</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1959,7 +1956,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1969,13 +1966,13 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="9"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>0</v>
@@ -1986,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
@@ -1994,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
@@ -2002,7 +1999,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
@@ -2010,7 +2007,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
@@ -2018,7 +2015,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
@@ -2026,7 +2023,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
@@ -2034,7 +2031,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
@@ -2042,7 +2039,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
@@ -2050,7 +2047,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
@@ -2058,7 +2055,7 @@
         <v>10</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2068,7 @@
   <dimension ref="B3:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2086,33 +2083,33 @@
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="3"/>
       <c r="H3" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>0</v>
@@ -2400,13 +2397,13 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>0</v>
@@ -2416,10 +2413,7 @@
       <c r="B30" s="9">
         <v>1</v>
       </c>
-      <c r="C30" s="9" t="e">
-        <f>VLOOKUP(B30,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="9">
